--- a/docs/BC Parks CMS Data Model-draft.xlsx
+++ b/docs/BC Parks CMS Data Model-draft.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bcgov-my.sharepoint.com/personal/robert_fiddler_gov_bc_ca/Documents/GitHub/BCParks.ca/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\GitHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{11206287-62AB-4885-B670-A3D784B45328}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{BF99C234-9A0E-48F4-973C-DCA5DC94C5BB}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74215560-3B25-4759-B93F-CB519B7FB50C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{A33082D8-1C98-4870-8924-9924FABEACC5}"/>
+    <workbookView xWindow="-120" yWindow="-16200" windowWidth="25440" windowHeight="15540" activeTab="1" xr2:uid="{A33082D8-1C98-4870-8924-9924FABEACC5}"/>
   </bookViews>
   <sheets>
     <sheet name="BCParks" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="354">
   <si>
     <t>Table</t>
   </si>
@@ -665,9 +665,6 @@
   </si>
   <si>
     <t>siteNumber</t>
-  </si>
-  <si>
-    <t>unofficialSite</t>
   </si>
   <si>
     <t>regionNumber</t>
@@ -1295,6 +1292,30 @@
   </si>
   <si>
     <t>Removes the facility as a displayed facility option, but retains the content for potential use in the future; this is used to hide the facility option and content, but not delete it.</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Excel Data Model</t>
+  </si>
+  <si>
+    <t>Strapi Collections</t>
+  </si>
+  <si>
+    <t>Match</t>
+  </si>
+  <si>
+    <t>name variants; should this be a look-up, or should it be added to the main ProtectedArea table?</t>
+  </si>
+  <si>
+    <t>name variants; should this be a look-up, or should it be added to the main Site table?</t>
+  </si>
+  <si>
+    <t>XLS Data Model Tables</t>
+  </si>
+  <si>
+    <t>isUnofficialSite</t>
   </si>
 </sst>
 </file>
@@ -1660,7 +1681,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1748,6 +1769,20 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2078,8 +2113,8 @@
   <dimension ref="A1:J219"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F174" sqref="F174"/>
+      <pane ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B99" sqref="B99:B110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -2104,7 +2139,7 @@
         <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>63</v>
@@ -2279,7 +2314,7 @@
         <v>22</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D10" s="30" t="s">
         <v>58</v>
@@ -2297,7 +2332,7 @@
         <v>65</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D11" s="22" t="s">
         <v>66</v>
@@ -2315,7 +2350,7 @@
         <v>24</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D12" s="22" t="s">
         <v>67</v>
@@ -2333,7 +2368,7 @@
         <v>25</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D13" s="22" t="s">
         <v>57</v>
@@ -2450,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="22" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I19" s="24" t="s">
         <v>131</v>
@@ -2459,10 +2494,10 @@
     <row r="20" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20" s="28" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D20" s="22" t="s">
         <v>61</v>
@@ -2480,7 +2515,7 @@
         <v>42</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D21" s="30" t="s">
         <v>51</v>
@@ -2517,10 +2552,10 @@
     <row r="23" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="28" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C23" s="28" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D23" s="22" t="s">
         <v>61</v>
@@ -2536,10 +2571,10 @@
     <row r="24" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
       <c r="B24" s="28" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D24" s="22" t="s">
         <v>61</v>
@@ -2555,10 +2590,10 @@
     <row r="25" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
       <c r="B25" s="28" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D25" s="22" t="s">
         <v>61</v>
@@ -2574,10 +2609,10 @@
     <row r="26" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
       <c r="B26" s="28" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C26" s="28" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D26" s="22" t="s">
         <v>61</v>
@@ -2593,10 +2628,10 @@
     <row r="27" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
       <c r="B27" s="28" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C27" s="28" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D27" s="22" t="s">
         <v>61</v>
@@ -2630,7 +2665,7 @@
         <v>39</v>
       </c>
       <c r="I28" s="24" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="29" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -2804,7 +2839,7 @@
     <row r="39" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
       <c r="C39" s="28" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="40" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -2815,7 +2850,7 @@
     </row>
     <row r="41" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B41" s="32"/>
       <c r="C41" s="32"/>
@@ -2881,10 +2916,10 @@
     <row r="50" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="15"/>
       <c r="B50" s="19" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C50" s="19" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D50" s="19" t="s">
         <v>45</v>
@@ -2937,7 +2972,7 @@
       <c r="A54" s="15"/>
       <c r="B54" s="19"/>
       <c r="C54" s="19" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D54" s="19"/>
       <c r="F54" s="24"/>
@@ -3004,7 +3039,7 @@
       <c r="A61" s="4"/>
       <c r="B61" s="19"/>
       <c r="C61" s="19" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D61" s="19"/>
     </row>
@@ -3012,7 +3047,7 @@
       <c r="A62" s="4"/>
       <c r="B62" s="19"/>
       <c r="C62" s="19" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D62" s="19"/>
     </row>
@@ -3209,7 +3244,7 @@
         <v>196</v>
       </c>
       <c r="C77" s="19" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D77" s="22" t="s">
         <v>61</v>
@@ -3382,7 +3417,7 @@
         <v>202</v>
       </c>
       <c r="C88" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D88" s="21" t="s">
         <v>57</v>
@@ -3399,7 +3434,7 @@
         <v>85</v>
       </c>
       <c r="C89" s="19" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D89" s="30"/>
       <c r="E89" s="19"/>
@@ -3413,7 +3448,7 @@
     <row r="90" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="4"/>
       <c r="B90" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C90" s="19"/>
       <c r="D90" s="30"/>
@@ -3426,7 +3461,7 @@
     <row r="91" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="4"/>
       <c r="B91" s="30" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C91" s="19"/>
       <c r="D91" s="30"/>
@@ -3439,10 +3474,10 @@
     <row r="92" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="4"/>
       <c r="B92" s="30" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C92" s="19" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D92" s="30"/>
       <c r="E92" s="19"/>
@@ -3476,7 +3511,7 @@
         <v>204</v>
       </c>
       <c r="C94" s="19" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D94" s="21" t="s">
         <v>61</v>
@@ -3670,7 +3705,7 @@
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B109" s="22" t="s">
-        <v>208</v>
+        <v>353</v>
       </c>
       <c r="C109" s="22"/>
       <c r="D109" s="22" t="s">
@@ -3697,10 +3732,10 @@
     <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B111" s="22"/>
       <c r="C111" s="22" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D111" s="22" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.2">
@@ -3718,64 +3753,64 @@
       <c r="H113" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="I113" s="59" t="s">
+      <c r="I113" s="67" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" s="57"/>
       <c r="B114" s="22" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C114" s="22" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D114" s="22" t="s">
         <v>45</v>
       </c>
       <c r="E114" s="36"/>
-      <c r="I114" s="59"/>
+      <c r="I114" s="67"/>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B115" s="22" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C115" s="22" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D115" s="22" t="s">
         <v>47</v>
       </c>
       <c r="E115" s="20"/>
-      <c r="I115" s="59"/>
+      <c r="I115" s="67"/>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B116" s="22" t="s">
         <v>24</v>
       </c>
       <c r="C116" s="22" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D116" s="22"/>
       <c r="E116" s="20"/>
       <c r="F116" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="I116" s="59"/>
+      <c r="I116" s="67"/>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B117" s="22"/>
       <c r="C117" s="22" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D117" s="22" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E117" s="20"/>
-      <c r="I117" s="59"/>
+      <c r="I117" s="67"/>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I118" s="59"/>
+      <c r="I118" s="67"/>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119" s="11" t="s">
@@ -3790,74 +3825,74 @@
       <c r="H119" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="I119" s="59"/>
+      <c r="I119" s="67"/>
     </row>
     <row r="120" spans="1:9" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B120" s="22" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C120" s="22" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D120" s="22" t="s">
         <v>47</v>
       </c>
       <c r="E120" s="20"/>
-      <c r="I120" s="59"/>
+      <c r="I120" s="67"/>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B121" s="22" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C121" s="22" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D121" s="22"/>
       <c r="E121" s="20"/>
       <c r="F121" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="I121" s="59"/>
+      <c r="I121" s="67"/>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B122" s="22"/>
       <c r="C122" s="22" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D122" s="22"/>
       <c r="E122" s="20"/>
-      <c r="I122" s="59"/>
+      <c r="I122" s="67"/>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B123" s="22" t="s">
         <v>25</v>
       </c>
       <c r="C123" s="22" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D123" s="22"/>
       <c r="E123" s="20"/>
-      <c r="I123" s="59"/>
+      <c r="I123" s="67"/>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B124" s="56"/>
       <c r="C124" s="56"/>
       <c r="D124" s="56"/>
       <c r="E124" s="20"/>
-      <c r="I124" s="59"/>
+      <c r="I124" s="67"/>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="H125" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="I125" s="59"/>
+      <c r="I125" s="67"/>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126" s="11" t="s">
         <v>21</v>
       </c>
       <c r="B126" s="26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C126" s="26"/>
       <c r="D126" s="26" t="s">
@@ -3867,7 +3902,7 @@
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B127" s="39" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C127" s="39"/>
       <c r="D127" s="19" t="s">
@@ -3895,10 +3930,10 @@
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B130" s="22" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C130" s="22" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D130" s="22" t="s">
         <v>45</v>
@@ -3907,10 +3942,10 @@
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B131" s="22" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C131" s="22" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D131" s="22" t="s">
         <v>47</v>
@@ -3922,7 +3957,7 @@
         <v>85</v>
       </c>
       <c r="C132" s="22" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D132" s="22"/>
       <c r="E132" s="20"/>
@@ -3950,10 +3985,10 @@
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B135" s="22" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C135" s="22" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D135" s="22" t="s">
         <v>45</v>
@@ -3962,10 +3997,10 @@
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B136" s="22" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C136" s="22" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D136" s="22" t="s">
         <v>47</v>
@@ -3974,10 +4009,10 @@
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B137" s="22" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C137" s="22" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D137" s="22" t="s">
         <v>47</v>
@@ -3986,7 +4021,7 @@
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B138" s="22" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C138" s="22"/>
       <c r="D138" s="22" t="s">
@@ -3999,7 +4034,7 @@
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B139" s="22" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C139" s="22"/>
       <c r="D139" s="22" t="s">
@@ -4013,16 +4048,16 @@
     <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B140" s="22"/>
       <c r="C140" s="22" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D140" s="22" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E140" s="20"/>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A142" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B142" s="26"/>
       <c r="C142" s="26"/>
@@ -4032,42 +4067,42 @@
     <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A143" s="10"/>
       <c r="B143" s="22" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C143" s="22" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D143" s="26" t="s">
         <v>45</v>
       </c>
       <c r="E143" s="20"/>
       <c r="F143" s="26" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A144" s="10"/>
       <c r="B144" s="22" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C144" s="22" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D144" s="19" t="s">
         <v>47</v>
       </c>
       <c r="E144" s="20"/>
       <c r="F144" s="19" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" s="10"/>
       <c r="B145" s="22" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C145" s="22" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D145" s="19" t="s">
         <v>47</v>
@@ -4080,10 +4115,10 @@
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" s="10"/>
       <c r="B146" s="19" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C146" s="19" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D146" s="19" t="s">
         <v>47</v>
@@ -4096,10 +4131,10 @@
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" s="10"/>
       <c r="B147" s="19" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C147" s="19" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D147" s="19" t="s">
         <v>47</v>
@@ -4112,10 +4147,10 @@
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" s="10"/>
       <c r="B148" s="19" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C148" s="19" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D148" s="19" t="s">
         <v>45</v>
@@ -4144,10 +4179,10 @@
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" s="10"/>
       <c r="B150" s="19" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C150" s="19" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D150" s="19" t="s">
         <v>61</v>
@@ -4161,7 +4196,7 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B152" s="26"/>
       <c r="C152" s="26"/>
@@ -4171,42 +4206,42 @@
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" s="10"/>
       <c r="B153" s="22" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C153" s="22" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D153" s="22" t="s">
         <v>45</v>
       </c>
       <c r="E153" s="20"/>
       <c r="F153" s="26" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" s="10"/>
       <c r="B154" s="22" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C154" s="22" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D154" s="22" t="s">
         <v>47</v>
       </c>
       <c r="E154" s="20"/>
       <c r="F154" s="19" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" s="10"/>
       <c r="B155" s="22" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C155" s="22" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D155" s="22" t="s">
         <v>47</v>
@@ -4219,10 +4254,10 @@
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" s="10"/>
       <c r="B156" s="22" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C156" s="22" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D156" s="22" t="s">
         <v>47</v>
@@ -4235,10 +4270,10 @@
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" s="10"/>
       <c r="B157" s="22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C157" s="22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D157" s="22" t="s">
         <v>47</v>
@@ -4251,10 +4286,10 @@
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" s="10"/>
       <c r="B158" s="22" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C158" s="22" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D158" s="22" t="s">
         <v>45</v>
@@ -4267,7 +4302,7 @@
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" s="10"/>
       <c r="B159" s="22" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D159" s="22" t="s">
         <v>107</v>
@@ -4296,10 +4331,10 @@
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" s="10"/>
       <c r="B161" s="22" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C161" s="22" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D161" s="22" t="s">
         <v>61</v>
@@ -4346,15 +4381,15 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B165" s="30" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C165" s="30"/>
       <c r="D165" s="30" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E165" s="20"/>
       <c r="F165" s="19" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.2">
@@ -4367,12 +4402,12 @@
       </c>
       <c r="E166" s="20"/>
       <c r="F166" s="19" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B167" s="22" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C167" s="22"/>
       <c r="D167" s="19" t="s">
@@ -4380,12 +4415,12 @@
       </c>
       <c r="E167" s="20"/>
       <c r="F167" s="19" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B168" s="22" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C168" s="22"/>
       <c r="D168" s="22" t="s">
@@ -4393,7 +4428,7 @@
       </c>
       <c r="E168" s="20"/>
       <c r="F168" s="19" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.2">
@@ -4433,15 +4468,15 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B172" s="30" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C172" s="30"/>
       <c r="D172" s="30" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E172" s="20"/>
       <c r="F172" s="19" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.2">
@@ -4454,12 +4489,12 @@
       </c>
       <c r="E173" s="20"/>
       <c r="F173" s="19" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B174" s="22" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C174" s="22"/>
       <c r="D174" s="19" t="s">
@@ -4467,12 +4502,12 @@
       </c>
       <c r="E174" s="20"/>
       <c r="F174" s="19" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B175" s="22" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C175" s="22"/>
       <c r="D175" s="22" t="s">
@@ -4480,7 +4515,7 @@
       </c>
       <c r="E175" s="20"/>
       <c r="F175" s="19" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.2">
@@ -4488,7 +4523,7 @@
         <v>104</v>
       </c>
       <c r="B177" s="26" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C177" s="26"/>
       <c r="D177" s="26" t="s">
@@ -4496,12 +4531,12 @@
       </c>
       <c r="E177" s="36"/>
       <c r="F177" s="26" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B178" s="22" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C178" s="22"/>
       <c r="D178" s="22" t="s">
@@ -4514,7 +4549,7 @@
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B179" s="22" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C179" s="22"/>
       <c r="D179" s="22" t="s">
@@ -4536,7 +4571,7 @@
         <v>111</v>
       </c>
       <c r="B182" s="26" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C182" s="26"/>
       <c r="D182" s="26"/>
@@ -4547,7 +4582,7 @@
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B183" s="22" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C183" s="22"/>
       <c r="D183" s="22" t="s">
@@ -4557,7 +4592,7 @@
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B184" s="22" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C184" s="22"/>
       <c r="D184" s="22" t="s">
@@ -4567,7 +4602,7 @@
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B185" s="22" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C185" s="22"/>
       <c r="D185" s="22" t="s">
@@ -4580,7 +4615,7 @@
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B186" s="30" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C186" s="30"/>
       <c r="D186" s="30" t="s">
@@ -4618,7 +4653,7 @@
       <c r="D191" s="26"/>
       <c r="E191" s="36"/>
       <c r="I191" s="18" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.2">
@@ -4638,7 +4673,7 @@
         <v>133</v>
       </c>
       <c r="B195" s="26" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C195" s="26"/>
       <c r="D195" s="26" t="s">
@@ -4671,7 +4706,7 @@
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B198" s="30" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C198" s="30"/>
       <c r="D198" s="30" t="s">
@@ -4681,7 +4716,7 @@
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B199" s="19" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C199" s="19"/>
       <c r="D199" s="22" t="s">
@@ -4708,7 +4743,7 @@
         <v>136</v>
       </c>
       <c r="B202" s="26" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C202" s="26"/>
       <c r="D202" s="26" t="s">
@@ -4744,7 +4779,7 @@
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B205" s="30" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C205" s="30"/>
       <c r="D205" s="30" t="s">
@@ -4754,7 +4789,7 @@
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B206" s="19" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C206" s="19"/>
       <c r="D206" s="22" t="s">
@@ -4781,7 +4816,7 @@
         <v>132</v>
       </c>
       <c r="B209" s="26" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C209" s="26"/>
       <c r="D209" s="26" t="s">
@@ -4791,7 +4826,7 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B210" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C210" s="22"/>
       <c r="D210" s="22" t="s">
@@ -4812,11 +4847,11 @@
     <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A213" s="18"/>
       <c r="B213" s="42" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C213" s="42"/>
       <c r="D213" s="42" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E213" s="42"/>
       <c r="F213" s="42" t="s">
@@ -4921,1321 +4956,1546 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D86AC28D-7F4B-4498-8004-F61C61491AB7}">
-  <dimension ref="A1:F237"/>
+  <dimension ref="A1:N240"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B69" sqref="B69"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A70" sqref="A70:A71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="37" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="64" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.83203125" customWidth="1"/>
+    <col min="13" max="13" width="22.1640625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="53" t="s">
+        <v>340</v>
+      </c>
+      <c r="B1" s="53" t="s">
         <v>341</v>
       </c>
-      <c r="B1" s="53" t="s">
-        <v>342</v>
-      </c>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
+      <c r="C1" s="54" t="s">
+        <v>347</v>
+      </c>
+      <c r="D1" s="63" t="s">
+        <v>349</v>
+      </c>
       <c r="E1" s="54"/>
       <c r="F1" s="54"/>
-    </row>
-    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="L1" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="55" t="s">
+        <v>280</v>
+      </c>
+      <c r="D2" s="64" t="s">
+        <v>346</v>
+      </c>
+      <c r="L2" t="s">
+        <v>316</v>
+      </c>
+      <c r="M2" s="66" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="48" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="48" t="s">
-        <v>282</v>
-      </c>
       <c r="B3" s="49" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="L3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" s="66" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="47" t="s">
         <v>173</v>
       </c>
       <c r="B4" s="49" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M4" s="66" t="s">
+        <v>133</v>
+      </c>
+      <c r="N4" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="47" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B5" s="49" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M5" s="66" t="s">
+        <v>136</v>
+      </c>
+      <c r="N5" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="B6" s="49" t="s">
         <v>283</v>
       </c>
-      <c r="B6" s="49" t="s">
+      <c r="M6" s="66" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="50"/>
+      <c r="L7" t="s">
+        <v>327</v>
+      </c>
+      <c r="M7" s="66" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+      <c r="A8" s="55" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="50"/>
-    </row>
-    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="55" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D8" s="64" t="s">
+        <v>346</v>
+      </c>
+      <c r="M8" s="66" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="48" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B9" s="49" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="L9" t="s">
+        <v>280</v>
+      </c>
+      <c r="M9" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="47" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B10" s="49" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C10" s="60" t="s">
+        <v>219</v>
+      </c>
+      <c r="L10" t="s">
+        <v>288</v>
+      </c>
+      <c r="M10" s="66" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="47" t="s">
+        <v>220</v>
+      </c>
+      <c r="B11" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="61" t="s">
+        <v>220</v>
+      </c>
+      <c r="L11" t="s">
+        <v>34</v>
+      </c>
+      <c r="M11" s="66" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="47" t="s">
         <v>221</v>
       </c>
-      <c r="B11" s="49" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="47" t="s">
+      <c r="B12" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="61" t="s">
+        <v>221</v>
+      </c>
+      <c r="L12" t="s">
+        <v>289</v>
+      </c>
+      <c r="M12" s="66" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="47" t="s">
         <v>222</v>
       </c>
-      <c r="B12" s="49" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="47" t="s">
+      <c r="B13" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="62" t="s">
+        <v>222</v>
+      </c>
+      <c r="M13" s="66" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="47" t="s">
         <v>223</v>
       </c>
-      <c r="B13" s="49" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="47" t="s">
+      <c r="B14" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="62" t="s">
+        <v>223</v>
+      </c>
+      <c r="L14" t="s">
+        <v>50</v>
+      </c>
+      <c r="M14" s="66" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="47" t="s">
         <v>224</v>
-      </c>
-      <c r="B14" s="49" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="47" t="s">
-        <v>225</v>
       </c>
       <c r="B15" s="49" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C15" s="62" t="s">
+        <v>224</v>
+      </c>
+      <c r="L15" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="47" t="s">
         <v>179</v>
       </c>
       <c r="B16" s="49" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C16" s="62" t="s">
+        <v>179</v>
+      </c>
+      <c r="L16" t="s">
+        <v>285</v>
+      </c>
+      <c r="M16" s="66" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="47" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B17" s="49" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C17" s="62" t="s">
+        <v>249</v>
+      </c>
+      <c r="L17" t="s">
+        <v>301</v>
+      </c>
+      <c r="M17" s="66" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="B18" s="49" t="s">
         <v>283</v>
       </c>
-      <c r="B18" s="49" t="s">
+      <c r="L18" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="M18" s="66" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="50"/>
-    </row>
-    <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="L19" t="s">
+        <v>300</v>
+      </c>
+      <c r="M19" s="66" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="55" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>285</v>
+      </c>
+      <c r="L20" t="s">
+        <v>19</v>
+      </c>
+      <c r="M20" s="66" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="48" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B21" s="49" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="L21" t="s">
+        <v>20</v>
+      </c>
+      <c r="M21" s="66" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="47" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B22" s="49" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C22" s="62" t="s">
+        <v>261</v>
+      </c>
+      <c r="L22" t="s">
+        <v>312</v>
+      </c>
+      <c r="M22" s="66" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="47" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B23" s="51" t="s">
+        <v>286</v>
+      </c>
+      <c r="C23" s="65" t="s">
+        <v>257</v>
+      </c>
+      <c r="L23" t="s">
+        <v>307</v>
+      </c>
+      <c r="M23" s="66" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" s="47" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="47" t="s">
+      <c r="B24" s="51" t="s">
+        <v>286</v>
+      </c>
+      <c r="C24" s="60" t="s">
+        <v>189</v>
+      </c>
+      <c r="L24" t="s">
+        <v>310</v>
+      </c>
+      <c r="M24" s="66" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" s="59"/>
+      <c r="B25" s="51"/>
+      <c r="C25" s="62" t="s">
+        <v>205</v>
+      </c>
+      <c r="M25" s="66" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" s="59"/>
+      <c r="B26" s="51"/>
+      <c r="C26" s="62" t="s">
+        <v>171</v>
+      </c>
+      <c r="M26" s="66" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" s="59"/>
+      <c r="B27" s="51"/>
+      <c r="C27" s="62" t="s">
+        <v>249</v>
+      </c>
+      <c r="L27" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="B28" s="49" t="s">
+        <v>283</v>
+      </c>
+      <c r="L28" t="s">
+        <v>337</v>
+      </c>
+      <c r="M28" s="4"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" s="50"/>
+      <c r="L29" t="s">
+        <v>335</v>
+      </c>
+      <c r="M29" s="4"/>
+    </row>
+    <row r="30" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A30" s="55" t="s">
         <v>288</v>
       </c>
-      <c r="B24" s="51" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="47" t="s">
+      <c r="L30" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="48" t="s">
+        <v>281</v>
+      </c>
+      <c r="B31" s="49" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="47" t="s">
+        <v>177</v>
+      </c>
+      <c r="B32" s="49" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" s="47" t="s">
+        <v>274</v>
+      </c>
+      <c r="B33" s="49" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="B34" s="49" t="s">
         <v>283</v>
       </c>
-      <c r="B25" s="49" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="50"/>
-    </row>
-    <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A27" s="55" t="s">
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" s="50"/>
+    </row>
+    <row r="36" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A36" s="55" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="48" t="s">
+    <row r="37" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="48" t="s">
+        <v>281</v>
+      </c>
+      <c r="B37" s="49" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" s="47" t="s">
+        <v>231</v>
+      </c>
+      <c r="B38" s="49" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="47" t="s">
+        <v>228</v>
+      </c>
+      <c r="B39" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="M39" s="4"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A40" s="47" t="s">
+        <v>232</v>
+      </c>
+      <c r="B40" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="M40" s="4"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A41" s="47" t="s">
         <v>282</v>
       </c>
-      <c r="B28" s="49" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="47" t="s">
-        <v>177</v>
-      </c>
-      <c r="B29" s="49" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="47" t="s">
-        <v>275</v>
-      </c>
-      <c r="B30" s="49" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="47" t="s">
+      <c r="B41" s="49" t="s">
         <v>283</v>
       </c>
-      <c r="B31" s="49" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="50"/>
-    </row>
-    <row r="33" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A33" s="55" t="s">
+      <c r="M41" s="4"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A42" s="50"/>
+    </row>
+    <row r="43" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A43" s="55" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="48" t="s">
-        <v>282</v>
-      </c>
-      <c r="B34" s="49" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="47" t="s">
-        <v>232</v>
-      </c>
-      <c r="B35" s="49" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="47" t="s">
-        <v>229</v>
-      </c>
-      <c r="B36" s="49" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="47" t="s">
-        <v>233</v>
-      </c>
-      <c r="B37" s="49" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="47" t="s">
-        <v>283</v>
-      </c>
-      <c r="B38" s="49" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="50"/>
-    </row>
-    <row r="40" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A40" s="55" t="s">
+    <row r="44" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A44" s="48" t="s">
+        <v>281</v>
+      </c>
+      <c r="B44" s="49" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A45" s="48" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="48" t="s">
-        <v>282</v>
-      </c>
-      <c r="B41" s="49" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="48" t="s">
+      <c r="B45" s="49" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A46" s="48" t="s">
         <v>292</v>
       </c>
-      <c r="B42" s="49" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="48" t="s">
+      <c r="B46" s="49" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A47" s="48" t="s">
         <v>293</v>
-      </c>
-      <c r="B43" s="49" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="48" t="s">
-        <v>294</v>
-      </c>
-      <c r="B44" s="49" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="47" t="s">
-        <v>295</v>
-      </c>
-      <c r="B45" s="49" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="48" t="s">
-        <v>296</v>
-      </c>
-      <c r="B46" s="49" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="48" t="s">
-        <v>297</v>
       </c>
       <c r="B47" s="49" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="48" t="s">
-        <v>298</v>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A48" s="47" t="s">
+        <v>294</v>
       </c>
       <c r="B48" s="49" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="48" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B49" s="49" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="48" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B50" s="49" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="47" t="s">
+    <row r="51" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A51" s="48" t="s">
+        <v>297</v>
+      </c>
+      <c r="B51" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="M51" s="6"/>
+    </row>
+    <row r="52" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A52" s="48" t="s">
+        <v>298</v>
+      </c>
+      <c r="B52" s="49" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A53" s="48" t="s">
+        <v>299</v>
+      </c>
+      <c r="B53" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="M53" s="10"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A54" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="B54" s="49" t="s">
         <v>283</v>
       </c>
-      <c r="B51" s="49" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="50"/>
-    </row>
-    <row r="53" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A53" s="55" t="s">
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A55" s="50"/>
+    </row>
+    <row r="56" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A56" s="55" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A57" s="48" t="s">
+        <v>281</v>
+      </c>
+      <c r="B57" s="49" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A58" s="47" t="s">
+        <v>225</v>
+      </c>
+      <c r="B58" s="49" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A59" s="47" t="s">
+        <v>226</v>
+      </c>
+      <c r="B59" s="49" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A60" s="47" t="s">
+        <v>227</v>
+      </c>
+      <c r="B60" s="49" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A61" s="47" t="s">
+        <v>222</v>
+      </c>
+      <c r="B61" s="49" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A62" s="47" t="s">
+        <v>223</v>
+      </c>
+      <c r="B62" s="49" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A63" s="47" t="s">
+        <v>224</v>
+      </c>
+      <c r="B63" s="49" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A64" s="47" t="s">
+        <v>179</v>
+      </c>
+      <c r="B64" s="49" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A65" s="47" t="s">
+        <v>249</v>
+      </c>
+      <c r="B65" s="49" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A66" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="B66" s="49" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A67" s="50"/>
+      <c r="M67" s="10"/>
+    </row>
+    <row r="68" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A68" s="55" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A54" s="48" t="s">
+    <row r="69" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A69" s="48" t="s">
+        <v>281</v>
+      </c>
+      <c r="B69" s="49" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A70" s="47" t="s">
+        <v>262</v>
+      </c>
+      <c r="B70" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="M70"/>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A71" s="47" t="s">
+        <v>259</v>
+      </c>
+      <c r="B71" s="51" t="s">
+        <v>286</v>
+      </c>
+      <c r="M71" s="10"/>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A72" s="47" t="s">
+        <v>287</v>
+      </c>
+      <c r="B72" s="51" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A73" s="47" t="s">
         <v>282</v>
       </c>
-      <c r="B54" s="49" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="47" t="s">
-        <v>226</v>
-      </c>
-      <c r="B55" s="49" t="s">
+      <c r="B73" s="49" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A74" s="50"/>
+    </row>
+    <row r="75" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A75" s="55" t="s">
+        <v>302</v>
+      </c>
+      <c r="M75" s="10"/>
+    </row>
+    <row r="76" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A76" s="48" t="s">
+        <v>281</v>
+      </c>
+      <c r="B76" s="49" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A77" s="47" t="s">
+        <v>187</v>
+      </c>
+      <c r="B77" s="49" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A78" s="47" t="s">
+        <v>303</v>
+      </c>
+      <c r="B78" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="M78" s="10"/>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A79" s="47" t="s">
+        <v>165</v>
+      </c>
+      <c r="B79" s="49" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A80" s="47" t="s">
+        <v>304</v>
+      </c>
+      <c r="B80" s="49" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A81" s="47" t="s">
+        <v>305</v>
+      </c>
+      <c r="B81" s="51" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A82" s="47" t="s">
+        <v>306</v>
+      </c>
+      <c r="B82" s="51" t="s">
+        <v>286</v>
+      </c>
+      <c r="M82" s="10"/>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A83" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="B83" s="49" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A84" s="50"/>
+    </row>
+    <row r="85" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A85" s="55" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A86" s="48" t="s">
+        <v>281</v>
+      </c>
+      <c r="B86" s="49" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A87" s="47" t="s">
+        <v>214</v>
+      </c>
+      <c r="B87" s="49" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="47" t="s">
-        <v>227</v>
-      </c>
-      <c r="B56" s="49" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" s="47" t="s">
-        <v>228</v>
-      </c>
-      <c r="B57" s="49" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" s="47" t="s">
-        <v>223</v>
-      </c>
-      <c r="B58" s="49" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" s="47" t="s">
-        <v>224</v>
-      </c>
-      <c r="B59" s="49" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" s="47" t="s">
-        <v>225</v>
-      </c>
-      <c r="B60" s="49" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" s="47" t="s">
-        <v>179</v>
-      </c>
-      <c r="B61" s="49" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" s="47" t="s">
-        <v>250</v>
-      </c>
-      <c r="B62" s="49" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" s="47" t="s">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A88" s="47" t="s">
+        <v>215</v>
+      </c>
+      <c r="B88" s="49" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A89" s="47" t="s">
+        <v>308</v>
+      </c>
+      <c r="B89" s="51" t="s">
+        <v>309</v>
+      </c>
+      <c r="M89" s="10"/>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A90" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="B90" s="49" t="s">
         <v>283</v>
       </c>
-      <c r="B63" s="49" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" s="50"/>
-    </row>
-    <row r="65" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A65" s="55" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A66" s="48" t="s">
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A91" s="50"/>
+    </row>
+    <row r="92" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A92" s="55" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A93" s="48" t="s">
+        <v>281</v>
+      </c>
+      <c r="B93" s="49" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A94" s="47" t="s">
+        <v>216</v>
+      </c>
+      <c r="B94" s="49" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A95" s="47" t="s">
+        <v>217</v>
+      </c>
+      <c r="B95" s="49" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A96" s="47" t="s">
+        <v>218</v>
+      </c>
+      <c r="B96" s="49" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A97" s="47" t="s">
+        <v>305</v>
+      </c>
+      <c r="B97" s="51" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A98" s="47" t="s">
         <v>282</v>
       </c>
-      <c r="B66" s="49" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" s="47" t="s">
-        <v>263</v>
-      </c>
-      <c r="B67" s="49" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" s="47" t="s">
-        <v>260</v>
-      </c>
-      <c r="B68" s="51" t="s">
+      <c r="B98" s="49" t="s">
+        <v>283</v>
+      </c>
+      <c r="M98" s="10"/>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A99" s="50"/>
+    </row>
+    <row r="100" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A100" s="55" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A101" s="48" t="s">
+        <v>281</v>
+      </c>
+      <c r="B101" s="49" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A102" s="47" t="s">
+        <v>187</v>
+      </c>
+      <c r="B102" s="49" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A103" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="B103" s="49" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A104" s="50"/>
+    </row>
+    <row r="105" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A105" s="55" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A106" s="48" t="s">
+        <v>281</v>
+      </c>
+      <c r="B106" s="49" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A107" s="47" t="s">
+        <v>170</v>
+      </c>
+      <c r="B107" s="49" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A108" s="47" t="s">
+        <v>188</v>
+      </c>
+      <c r="B108" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="M108" s="10"/>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A109" s="47" t="s">
+        <v>187</v>
+      </c>
+      <c r="B109" s="51" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A110" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="B110" s="49" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A111" s="50"/>
+    </row>
+    <row r="112" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A112" s="55" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A113" s="48" t="s">
+        <v>281</v>
+      </c>
+      <c r="B113" s="49" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A114" s="48" t="s">
+        <v>313</v>
+      </c>
+      <c r="B114" s="49" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A115" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="B115" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="M115" s="10"/>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A116" s="47" t="s">
+        <v>314</v>
+      </c>
+      <c r="B116" s="51" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A117" s="47" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" s="47" t="s">
-        <v>288</v>
-      </c>
-      <c r="B69" s="51" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" s="47" t="s">
+      <c r="B117" s="51" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A118" s="47" t="s">
+        <v>315</v>
+      </c>
+      <c r="B118" s="51" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A119" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="B119" s="49" t="s">
         <v>283</v>
       </c>
-      <c r="B70" s="49" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" s="50"/>
-    </row>
-    <row r="72" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A72" s="55" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A73" s="48" t="s">
-        <v>282</v>
-      </c>
-      <c r="B73" s="49" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74" s="47" t="s">
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A120" s="50"/>
+    </row>
+    <row r="121" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A121" s="55" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A122" s="48" t="s">
+        <v>281</v>
+      </c>
+      <c r="B122" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="M122" s="10"/>
+    </row>
+    <row r="123" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A123" s="48" t="s">
+        <v>317</v>
+      </c>
+      <c r="B123" s="49" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A124" s="47" t="s">
+        <v>191</v>
+      </c>
+      <c r="B124" s="49" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A125" s="47" t="s">
+        <v>192</v>
+      </c>
+      <c r="B125" s="49" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A126" s="47" t="s">
+        <v>193</v>
+      </c>
+      <c r="B126" s="49" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A127" s="47" t="s">
+        <v>194</v>
+      </c>
+      <c r="B127" s="49" t="s">
+        <v>318</v>
+      </c>
+      <c r="M127" s="10"/>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A128" s="68" t="s">
+        <v>195</v>
+      </c>
+      <c r="B128" s="49" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A129" s="68"/>
+      <c r="B129" s="52" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A130" s="68"/>
+      <c r="B130" s="52" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A131" s="47" t="s">
         <v>187</v>
       </c>
-      <c r="B74" s="49" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75" s="47" t="s">
-        <v>304</v>
-      </c>
-      <c r="B75" s="49" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76" s="47" t="s">
-        <v>165</v>
-      </c>
-      <c r="B76" s="49" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77" s="47" t="s">
-        <v>305</v>
-      </c>
-      <c r="B77" s="49" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78" s="47" t="s">
-        <v>306</v>
-      </c>
-      <c r="B78" s="51" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79" s="47" t="s">
-        <v>307</v>
-      </c>
-      <c r="B79" s="51" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" s="47" t="s">
-        <v>283</v>
-      </c>
-      <c r="B80" s="49" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81" s="50"/>
-    </row>
-    <row r="82" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A82" s="55" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A83" s="48" t="s">
-        <v>282</v>
-      </c>
-      <c r="B83" s="49" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" s="47" t="s">
-        <v>215</v>
-      </c>
-      <c r="B84" s="49" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85" s="47" t="s">
-        <v>216</v>
-      </c>
-      <c r="B85" s="49" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" s="47" t="s">
-        <v>309</v>
-      </c>
-      <c r="B86" s="51" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87" s="47" t="s">
-        <v>283</v>
-      </c>
-      <c r="B87" s="49" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88" s="50"/>
-    </row>
-    <row r="89" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A89" s="55" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A90" s="48" t="s">
-        <v>282</v>
-      </c>
-      <c r="B90" s="49" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91" s="47" t="s">
-        <v>217</v>
-      </c>
-      <c r="B91" s="49" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A92" s="47" t="s">
-        <v>218</v>
-      </c>
-      <c r="B92" s="49" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A93" s="47" t="s">
-        <v>219</v>
-      </c>
-      <c r="B93" s="49" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A94" s="47" t="s">
-        <v>306</v>
-      </c>
-      <c r="B94" s="51" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A95" s="47" t="s">
-        <v>283</v>
-      </c>
-      <c r="B95" s="49" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A96" s="50"/>
-    </row>
-    <row r="97" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A97" s="55" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A98" s="48" t="s">
-        <v>282</v>
-      </c>
-      <c r="B98" s="49" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A99" s="47" t="s">
-        <v>187</v>
-      </c>
-      <c r="B99" s="49" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A100" s="47" t="s">
-        <v>283</v>
-      </c>
-      <c r="B100" s="49" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A101" s="50"/>
-    </row>
-    <row r="102" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A102" s="55" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A103" s="48" t="s">
-        <v>282</v>
-      </c>
-      <c r="B103" s="49" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A104" s="47" t="s">
-        <v>170</v>
-      </c>
-      <c r="B104" s="49" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A105" s="47" t="s">
+      <c r="B131" s="49" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A132" s="47" t="s">
+        <v>198</v>
+      </c>
+      <c r="B132" s="49" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A133" s="47" t="s">
+        <v>199</v>
+      </c>
+      <c r="B133" s="49" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A134" s="47" t="s">
+        <v>200</v>
+      </c>
+      <c r="B134" s="49" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A135" s="47" t="s">
+        <v>201</v>
+      </c>
+      <c r="B135" s="49" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A136" s="47" t="s">
         <v>188</v>
       </c>
-      <c r="B105" s="49" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A106" s="47" t="s">
-        <v>187</v>
-      </c>
-      <c r="B106" s="51" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A107" s="47" t="s">
-        <v>283</v>
-      </c>
-      <c r="B107" s="49" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A108" s="50"/>
-    </row>
-    <row r="109" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A109" s="55" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A110" s="48" t="s">
-        <v>282</v>
-      </c>
-      <c r="B110" s="49" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A111" s="48" t="s">
-        <v>314</v>
-      </c>
-      <c r="B111" s="49" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A112" s="47" t="s">
-        <v>214</v>
-      </c>
-      <c r="B112" s="49" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A113" s="47" t="s">
-        <v>315</v>
-      </c>
-      <c r="B113" s="51" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A114" s="47" t="s">
-        <v>288</v>
-      </c>
-      <c r="B114" s="51" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A115" s="47" t="s">
-        <v>316</v>
-      </c>
-      <c r="B115" s="51" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A116" s="47" t="s">
-        <v>283</v>
-      </c>
-      <c r="B116" s="49" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A117" s="50"/>
-    </row>
-    <row r="118" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A118" s="55" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A119" s="48" t="s">
-        <v>282</v>
-      </c>
-      <c r="B119" s="49" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A120" s="48" t="s">
+      <c r="B136" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="M136" s="10"/>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A137" s="68" t="s">
+        <v>197</v>
+      </c>
+      <c r="B137" s="49" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A138" s="68"/>
+      <c r="B138" s="51" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A139" s="47" t="s">
+        <v>180</v>
+      </c>
+      <c r="B139" s="49" t="s">
         <v>318</v>
       </c>
-      <c r="B120" s="49" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A121" s="47" t="s">
-        <v>191</v>
-      </c>
-      <c r="B121" s="49" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A122" s="47" t="s">
-        <v>192</v>
-      </c>
-      <c r="B122" s="49" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A123" s="47" t="s">
-        <v>193</v>
-      </c>
-      <c r="B123" s="49" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A124" s="47" t="s">
-        <v>194</v>
-      </c>
-      <c r="B124" s="49" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A125" s="60" t="s">
-        <v>195</v>
-      </c>
-      <c r="B125" s="49" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A126" s="60"/>
-      <c r="B126" s="52" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A127" s="60"/>
-      <c r="B127" s="52" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A128" s="47" t="s">
-        <v>187</v>
-      </c>
-      <c r="B128" s="49" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A129" s="47" t="s">
-        <v>198</v>
-      </c>
-      <c r="B129" s="49" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A130" s="47" t="s">
-        <v>199</v>
-      </c>
-      <c r="B130" s="49" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A131" s="47" t="s">
-        <v>200</v>
-      </c>
-      <c r="B131" s="49" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A132" s="47" t="s">
-        <v>201</v>
-      </c>
-      <c r="B132" s="49" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A133" s="47" t="s">
-        <v>188</v>
-      </c>
-      <c r="B133" s="49" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A134" s="60" t="s">
-        <v>197</v>
-      </c>
-      <c r="B134" s="49" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A135" s="60"/>
-      <c r="B135" s="51" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A136" s="47" t="s">
-        <v>180</v>
-      </c>
-      <c r="B136" s="49" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A137" s="47" t="s">
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A140" s="47" t="s">
         <v>181</v>
       </c>
-      <c r="B137" s="49" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A138" s="47" t="s">
+      <c r="B140" s="49" t="s">
+        <v>318</v>
+      </c>
+      <c r="M140" s="10"/>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A141" s="47" t="s">
         <v>182</v>
-      </c>
-      <c r="B138" s="49" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A139" s="47" t="s">
-        <v>277</v>
-      </c>
-      <c r="B139" s="49" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A140" s="47" t="s">
-        <v>278</v>
-      </c>
-      <c r="B140" s="49" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A141" s="47" t="s">
-        <v>279</v>
       </c>
       <c r="B141" s="49" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A142" s="47" t="s">
+        <v>276</v>
+      </c>
+      <c r="B142" s="49" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A143" s="47" t="s">
+        <v>277</v>
+      </c>
+      <c r="B143" s="49" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A144" s="47" t="s">
+        <v>278</v>
+      </c>
+      <c r="B144" s="49" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A145" s="47" t="s">
+        <v>324</v>
+      </c>
+      <c r="B145" s="51" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A146" s="47" t="s">
         <v>325</v>
       </c>
-      <c r="B142" s="51" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A143" s="47" t="s">
+      <c r="B146" s="51" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A147" s="47" t="s">
+        <v>279</v>
+      </c>
+      <c r="B147" s="51" t="s">
+        <v>286</v>
+      </c>
+      <c r="M147" s="10"/>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A148" s="47" t="s">
         <v>326</v>
       </c>
-      <c r="B143" s="51" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A144" s="47" t="s">
-        <v>280</v>
-      </c>
-      <c r="B144" s="51" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A145" s="47" t="s">
+      <c r="B148" s="51" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A149" s="47" t="s">
+        <v>308</v>
+      </c>
+      <c r="B149" s="51" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A150" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="B150" s="49" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A151" s="50"/>
+    </row>
+    <row r="152" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A152" s="55" t="s">
         <v>327</v>
       </c>
-      <c r="B145" s="51" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A146" s="47" t="s">
-        <v>309</v>
-      </c>
-      <c r="B146" s="51" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A147" s="47" t="s">
+    </row>
+    <row r="153" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A153" s="48" t="s">
+        <v>281</v>
+      </c>
+      <c r="B153" s="49" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A154" s="47" t="s">
+        <v>163</v>
+      </c>
+      <c r="B154" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="M154" s="10"/>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A155" s="47" t="s">
+        <v>170</v>
+      </c>
+      <c r="B155" s="49" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A156" s="47" t="s">
+        <v>171</v>
+      </c>
+      <c r="B156" s="49" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A157" s="47" t="s">
+        <v>175</v>
+      </c>
+      <c r="B157" s="49" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A158" s="47" t="s">
+        <v>246</v>
+      </c>
+      <c r="B158" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="M158"/>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A159" s="47" t="s">
+        <v>178</v>
+      </c>
+      <c r="B159" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="M159"/>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A160" s="47" t="s">
+        <v>179</v>
+      </c>
+      <c r="B160" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="M160"/>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A161" s="47" t="s">
+        <v>180</v>
+      </c>
+      <c r="B161" s="49" t="s">
+        <v>318</v>
+      </c>
+      <c r="M161"/>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A162" s="47" t="s">
+        <v>181</v>
+      </c>
+      <c r="B162" s="49" t="s">
+        <v>318</v>
+      </c>
+      <c r="M162"/>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A163" s="47" t="s">
+        <v>182</v>
+      </c>
+      <c r="B163" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="M163"/>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A164" s="47" t="s">
+        <v>172</v>
+      </c>
+      <c r="B164" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="M164"/>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A165" s="47" t="s">
+        <v>183</v>
+      </c>
+      <c r="B165" s="49" t="s">
         <v>283</v>
       </c>
-      <c r="B147" s="49" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A148" s="50"/>
-    </row>
-    <row r="149" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A149" s="55" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A150" s="48" t="s">
-        <v>282</v>
-      </c>
-      <c r="B150" s="49" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A151" s="47" t="s">
-        <v>163</v>
-      </c>
-      <c r="B151" s="49" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A152" s="47" t="s">
-        <v>170</v>
-      </c>
-      <c r="B152" s="49" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A153" s="47" t="s">
-        <v>171</v>
-      </c>
-      <c r="B153" s="49" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A154" s="47" t="s">
-        <v>175</v>
-      </c>
-      <c r="B154" s="49" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A155" s="47" t="s">
-        <v>247</v>
-      </c>
-      <c r="B155" s="49" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A156" s="47" t="s">
-        <v>178</v>
-      </c>
-      <c r="B156" s="49" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A157" s="47" t="s">
-        <v>179</v>
-      </c>
-      <c r="B157" s="49" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A158" s="47" t="s">
-        <v>180</v>
-      </c>
-      <c r="B158" s="49" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A159" s="47" t="s">
-        <v>181</v>
-      </c>
-      <c r="B159" s="49" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A160" s="47" t="s">
-        <v>182</v>
-      </c>
-      <c r="B160" s="49" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A161" s="47" t="s">
-        <v>172</v>
-      </c>
-      <c r="B161" s="49" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A162" s="47" t="s">
-        <v>183</v>
-      </c>
-      <c r="B162" s="49" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A163" s="47" t="s">
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A166" s="47" t="s">
         <v>184</v>
       </c>
-      <c r="B163" s="49" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A164" s="47" t="s">
+      <c r="B166" s="49" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A167" s="47" t="s">
         <v>164</v>
       </c>
-      <c r="B164" s="49" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A165" s="47" t="s">
+      <c r="B167" s="49" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A168" s="47" t="s">
         <v>165</v>
       </c>
-      <c r="B165" s="49" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A166" s="47" t="s">
+      <c r="B168" s="49" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A169" s="47" t="s">
         <v>166</v>
       </c>
-      <c r="B166" s="49" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A167" s="47" t="s">
+      <c r="B169" s="49" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A170" s="47" t="s">
         <v>167</v>
       </c>
-      <c r="B167" s="49" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A168" s="47" t="s">
+      <c r="B170" s="49" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A171" s="47" t="s">
         <v>168</v>
       </c>
-      <c r="B168" s="49" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A169" s="47" t="s">
+      <c r="B171" s="49" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A172" s="47" t="s">
         <v>169</v>
       </c>
-      <c r="B169" s="49" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A170" s="47" t="s">
+      <c r="B172" s="49" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A173" s="47" t="s">
         <v>185</v>
       </c>
-      <c r="B170" s="49" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A171" s="47" t="s">
+      <c r="B173" s="49" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A174" s="47" t="s">
         <v>186</v>
       </c>
-      <c r="B171" s="49" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A172" s="47" t="s">
+      <c r="B174" s="49" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A175" s="47" t="s">
         <v>173</v>
       </c>
-      <c r="B172" s="51" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A173" s="47" t="s">
+      <c r="B175" s="51" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A176" s="47" t="s">
         <v>174</v>
       </c>
-      <c r="B173" s="51" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A174" s="47" t="s">
-        <v>176</v>
-      </c>
-      <c r="B174" s="51" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A175" s="47" t="s">
-        <v>177</v>
-      </c>
-      <c r="B175" s="51" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A176" s="47" t="s">
-        <v>246</v>
-      </c>
-      <c r="B176" s="49" t="s">
-        <v>61</v>
+      <c r="B176" s="51" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" s="47" t="s">
-        <v>255</v>
-      </c>
-      <c r="B177" s="49" t="s">
-        <v>61</v>
+        <v>176</v>
+      </c>
+      <c r="B177" s="51" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" s="47" t="s">
-        <v>254</v>
-      </c>
-      <c r="B178" s="49" t="s">
-        <v>61</v>
+        <v>177</v>
+      </c>
+      <c r="B178" s="51" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" s="47" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="B179" s="49" t="s">
         <v>61</v>
@@ -6243,7 +6503,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" s="47" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B180" s="49" t="s">
         <v>61</v>
@@ -6251,207 +6511,207 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" s="47" t="s">
-        <v>329</v>
-      </c>
-      <c r="B181" s="51" t="s">
-        <v>310</v>
+        <v>253</v>
+      </c>
+      <c r="B181" s="49" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" s="47" t="s">
-        <v>330</v>
-      </c>
-      <c r="B182" s="51" t="s">
-        <v>310</v>
+        <v>252</v>
+      </c>
+      <c r="B182" s="49" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" s="47" t="s">
-        <v>331</v>
-      </c>
-      <c r="B183" s="51" t="s">
-        <v>310</v>
+        <v>251</v>
+      </c>
+      <c r="B183" s="49" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" s="47" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B184" s="51" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" s="47" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="B185" s="51" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" s="47" t="s">
+        <v>330</v>
+      </c>
+      <c r="B186" s="51" t="s">
         <v>309</v>
-      </c>
-      <c r="B186" s="51" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" s="47" t="s">
+        <v>331</v>
+      </c>
+      <c r="B187" s="51" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A188" s="47" t="s">
+        <v>324</v>
+      </c>
+      <c r="B188" s="51" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A189" s="47" t="s">
+        <v>308</v>
+      </c>
+      <c r="B189" s="51" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A190" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="B190" s="49" t="s">
         <v>283</v>
       </c>
-      <c r="B187" s="49" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A188" s="50"/>
-    </row>
-    <row r="189" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A189" s="55" t="s">
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A191" s="50"/>
+    </row>
+    <row r="192" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A192" s="55" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="190" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A190" s="48" t="s">
-        <v>282</v>
-      </c>
-      <c r="B190" s="49" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A191" s="48" t="s">
-        <v>333</v>
-      </c>
-      <c r="B191" s="49" t="s">
+    <row r="193" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A193" s="48" t="s">
+        <v>281</v>
+      </c>
+      <c r="B193" s="49" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A194" s="48" t="s">
+        <v>332</v>
+      </c>
+      <c r="B194" s="49" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A192" s="47" t="s">
-        <v>210</v>
-      </c>
-      <c r="B192" s="49" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A193" s="47" t="s">
-        <v>332</v>
-      </c>
-      <c r="B193" s="51" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A194" s="47" t="s">
-        <v>325</v>
-      </c>
-      <c r="B194" s="51" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" s="47" t="s">
+        <v>209</v>
+      </c>
+      <c r="B195" s="49" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A196" s="47" t="s">
+        <v>331</v>
+      </c>
+      <c r="B196" s="51" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A197" s="47" t="s">
+        <v>324</v>
+      </c>
+      <c r="B197" s="51" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A198" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="B198" s="49" t="s">
         <v>283</v>
       </c>
-      <c r="B195" s="49" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A196" s="50"/>
-    </row>
-    <row r="197" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A197" s="55" t="s">
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A199" s="50"/>
+    </row>
+    <row r="200" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A200" s="55" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="198" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A198" s="48" t="s">
-        <v>282</v>
-      </c>
-      <c r="B198" s="49" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A199" s="48" t="s">
-        <v>334</v>
-      </c>
-      <c r="B199" s="49" t="s">
+    <row r="201" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A201" s="48" t="s">
+        <v>281</v>
+      </c>
+      <c r="B201" s="49" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A202" s="48" t="s">
+        <v>333</v>
+      </c>
+      <c r="B202" s="49" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A200" s="47" t="s">
-        <v>212</v>
-      </c>
-      <c r="B200" s="49" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A201" s="47" t="s">
-        <v>316</v>
-      </c>
-      <c r="B201" s="51" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A202" s="47" t="s">
-        <v>325</v>
-      </c>
-      <c r="B202" s="51" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" s="47" t="s">
+        <v>211</v>
+      </c>
+      <c r="B203" s="49" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A204" s="47" t="s">
+        <v>315</v>
+      </c>
+      <c r="B204" s="51" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A205" s="47" t="s">
+        <v>324</v>
+      </c>
+      <c r="B205" s="51" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A206" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="B206" s="49" t="s">
         <v>283</v>
       </c>
-      <c r="B203" s="49" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A204" s="50"/>
-    </row>
-    <row r="205" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A205" s="55" t="s">
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A207" s="50"/>
+    </row>
+    <row r="208" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A208" s="55" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="206" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A206" s="48" t="s">
-        <v>282</v>
-      </c>
-      <c r="B206" s="49" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A207" s="47" t="s">
-        <v>206</v>
-      </c>
-      <c r="B207" s="49" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A208" s="47" t="s">
-        <v>207</v>
-      </c>
-      <c r="B208" s="49" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A209" s="47" t="s">
-        <v>201</v>
+    <row r="209" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A209" s="48" t="s">
+        <v>281</v>
       </c>
       <c r="B209" s="49" t="s">
         <v>47</v>
@@ -6459,23 +6719,23 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" s="47" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="B210" s="49" t="s">
-        <v>322</v>
+        <v>47</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" s="47" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="B211" s="49" t="s">
-        <v>322</v>
+        <v>45</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" s="47" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="B212" s="49" t="s">
         <v>47</v>
@@ -6483,179 +6743,206 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" s="47" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="B213" s="49" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" s="47" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="B214" s="49" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" s="47" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="B215" s="49" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A216" s="48" t="s">
-        <v>335</v>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A216" s="47" t="s">
+        <v>180</v>
       </c>
       <c r="B216" s="49" t="s">
-        <v>47</v>
+        <v>318</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" s="47" t="s">
-        <v>288</v>
-      </c>
-      <c r="B217" s="51" t="s">
-        <v>287</v>
+        <v>181</v>
+      </c>
+      <c r="B217" s="49" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" s="47" t="s">
+        <v>182</v>
+      </c>
+      <c r="B218" s="49" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A219" s="48" t="s">
+        <v>334</v>
+      </c>
+      <c r="B219" s="49" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A220" s="47" t="s">
+        <v>287</v>
+      </c>
+      <c r="B220" s="51" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A221" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="B221" s="49" t="s">
         <v>283</v>
       </c>
-      <c r="B218" s="49" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A219" s="50"/>
-    </row>
-    <row r="220" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A220" s="55" t="s">
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A222" s="50"/>
+    </row>
+    <row r="223" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A223" s="55" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A224" s="48" t="s">
+        <v>281</v>
+      </c>
+      <c r="B224" s="49" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A225" s="47" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="221" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A221" s="48" t="s">
+      <c r="B225" s="51" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A226" s="47" t="s">
         <v>282</v>
       </c>
-      <c r="B221" s="49" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A222" s="47" t="s">
+      <c r="B226" s="49" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A227" s="50"/>
+    </row>
+    <row r="228" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A228" s="55" t="s">
         <v>337</v>
       </c>
-      <c r="B222" s="51" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A223" s="47" t="s">
+    </row>
+    <row r="229" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A229" s="48" t="s">
+        <v>281</v>
+      </c>
+      <c r="B229" s="49" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A230" s="48" t="s">
+        <v>338</v>
+      </c>
+      <c r="B230" s="49" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A231" s="47" t="s">
+        <v>339</v>
+      </c>
+      <c r="B231" s="51" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A232" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="B232" s="49" t="s">
         <v>283</v>
       </c>
-      <c r="B223" s="49" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A224" s="50"/>
-    </row>
-    <row r="225" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A225" s="55" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A226" s="48" t="s">
-        <v>282</v>
-      </c>
-      <c r="B226" s="49" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A227" s="48" t="s">
-        <v>339</v>
-      </c>
-      <c r="B227" s="49" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A228" s="47" t="s">
-        <v>340</v>
-      </c>
-      <c r="B228" s="51" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A229" s="47" t="s">
-        <v>283</v>
-      </c>
-      <c r="B229" s="49" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A230" s="50"/>
-    </row>
-    <row r="231" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A231" s="55" t="s">
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A233" s="50"/>
+    </row>
+    <row r="234" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A234" s="55" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="232" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A232" s="48" t="s">
-        <v>282</v>
-      </c>
-      <c r="B232" s="49" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A233" s="47" t="s">
-        <v>176</v>
-      </c>
-      <c r="B233" s="49" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A234" s="47" t="s">
-        <v>275</v>
-      </c>
-      <c r="B234" s="49" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A235" s="47" t="s">
-        <v>276</v>
+    <row r="235" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A235" s="48" t="s">
+        <v>281</v>
       </c>
       <c r="B235" s="49" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" s="47" t="s">
+        <v>176</v>
+      </c>
+      <c r="B236" s="49" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A237" s="47" t="s">
+        <v>274</v>
+      </c>
+      <c r="B237" s="49" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A238" s="47" t="s">
+        <v>275</v>
+      </c>
+      <c r="B238" s="49" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A239" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="B239" s="49" t="s">
         <v>283</v>
       </c>
-      <c r="B236" s="49" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A237" s="50"/>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A240" s="50"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="M2:M198">
+    <sortCondition ref="M9:M198"/>
+  </sortState>
   <mergeCells count="2">
-    <mergeCell ref="A125:A127"/>
-    <mergeCell ref="A134:A135"/>
+    <mergeCell ref="A128:A130"/>
+    <mergeCell ref="A137:A138"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
